--- a/Assets/MLFramework/5_PopupUIManager/Table/PopupUITable.xlsx
+++ b/Assets/MLFramework/5_PopupUIManager/Table/PopupUITable.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="1500" windowWidth="21015" windowHeight="15900"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Path</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,23 +37,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TestPopupUI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트 팝업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestPopupUI2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트 팝업2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>popup_ui/testpopup</t>
+    <t>PopupUI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuitPopupUI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PausePopupUI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaitingPopupUI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoAdsPopupUI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TutorialPopupUI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PracticePopupUI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -439,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -471,12 +479,9 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -485,13 +490,54 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/MLFramework/5_PopupUIManager/Table/PopupUITable.xlsx
+++ b/Assets/MLFramework/5_PopupUIManager/Table/PopupUITable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>Path</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,10 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WaitingPopupUI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NoAdsPopupUI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -61,7 +57,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PracticePopupUI</t>
+    <t>OptionPopupUI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SaveDataPopupUI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoadDataPopupUI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OfflinePopupUI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -447,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -504,7 +512,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -515,7 +523,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -526,7 +534,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -538,6 +546,28 @@
       </c>
       <c r="C7" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/MLFramework/5_PopupUIManager/Table/PopupUITable.xlsx
+++ b/Assets/MLFramework/5_PopupUIManager/Table/PopupUITable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Path</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,6 +70,10 @@
   </si>
   <si>
     <t>OfflinePopupUI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReviewPopupUI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -447,7 +451,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -455,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -570,6 +574,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
